--- a/src/assets/years/2024.xlsx
+++ b/src/assets/years/2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desman\AppData\Roaming\OpenText\OTEdit\EC_edrms\c939545\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoccdc-my.sharepoint.com/personal/remy_vanherweghem_parl_gc_ca/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F2409-8F1F-4246-965D-86BA57571DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{B95F2409-8F1F-4246-965D-86BA57571DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9524E5-87F7-46BF-9F01-FCC2A0B7C4AB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{998BE1DA-C037-4508-8C33-93B2F93493F5}"/>
+    <workbookView xWindow="-57720" yWindow="-3285" windowWidth="29040" windowHeight="15840" xr2:uid="{998BE1DA-C037-4508-8C33-93B2F93493F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARS" sheetId="5" r:id="rId1"/>
@@ -224,19 +224,7 @@
     <t>fsr_poster_url</t>
   </si>
   <si>
-    <t>https://distribution-i696d61676573.pbo-dpb.ca/17394f7f5b7d2cd2405e3a05d1082eb72400241c249bb030a32cabf60b3ac77e</t>
-  </si>
-  <si>
-    <t>https://distribution-i696d61676573.pbo-dpb.ca/f5a6d162ca59b837a46677d33f93a808d448d23ce2f3d0f728a1b7615ca4c325</t>
-  </si>
-  <si>
     <t>fsr_url</t>
-  </si>
-  <si>
-    <t>https://www.pbo-dpb.ca/en/publications/RP-2324-011-S--fiscal-sustainability-report-2023--rapport-viabilite-financiere-2023</t>
-  </si>
-  <si>
-    <t>https://www.pbo-dpb.ca/fr/publications/RP-2324-011-S--fiscal-sustainability-report-2023--rapport-viabilite-financiere-2023</t>
   </si>
   <si>
     <t>fsr_intro</t>
@@ -583,6 +571,18 @@
   </si>
   <si>
     <t>Current fiscal policy in Quebec, Saskatchewan, Nova Scotia, Ontario and Alberta is **sustainable**.</t>
+  </si>
+  <si>
+    <t>https://distribution-i696d61676573.pbo-dpb.ca/f9b79c819055adbf4c783549b1e79d5db253bce2117032f06970deec8d98ac94</t>
+  </si>
+  <si>
+    <t>https://distribution-i696d61676573.pbo-dpb.ca/b82e08bf27188b942f2d746679992d10934af4343f85074ebc189f0bd9da2b8c</t>
+  </si>
+  <si>
+    <t>https://www.pbo-dpb.ca/en/publications/RP-2425-014-S--fiscal-sustainability-report-2024--rapport-viabilite-financiere-2024</t>
+  </si>
+  <si>
+    <t>https://www.pbo-dpb.ca/fr/publications/RP-2425-014-S--fiscal-sustainability-report-2024--rapport-viabilite-financiere-2024</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1093,202 +1093,202 @@
         <v>32</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3929,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,10 +3940,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,10 +3951,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,10 +3962,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,10 +3973,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3984,10 +3984,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3995,10 +3995,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,10 +4006,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,10 +4017,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4028,10 +4028,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,10 +4039,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,10 +4050,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,10 +4061,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,10 +4083,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4094,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,10 +4105,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,10 +4116,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,10 +4127,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4149,10 +4149,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,10 +4160,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4182,10 +4182,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,10 +4193,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4204,10 +4204,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4215,10 +4215,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,10 +4248,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,10 +4259,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,10 +4270,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4281,10 +4281,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4292,10 +4292,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" s="9">
         <v>2010</v>
@@ -12859,12 +12859,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c48d9f9-9c94-4cd5-a1af-04a7d0affc88">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0d81d729-89c4-4952-b666-0a894ff8d8bf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13091,20 +13093,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c48d9f9-9c94-4cd5-a1af-04a7d0affc88">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0d81d729-89c4-4952-b666-0a894ff8d8bf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F959B61-252A-452B-892E-2D97517A6107}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E3AE76-DA5D-4F66-85F4-8D99B24D820B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1c48d9f9-9c94-4cd5-a1af-04a7d0affc88"/>
+    <ds:schemaRef ds:uri="0d81d729-89c4-4952-b666-0a894ff8d8bf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13129,12 +13132,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E3AE76-DA5D-4F66-85F4-8D99B24D820B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F959B61-252A-452B-892E-2D97517A6107}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1c48d9f9-9c94-4cd5-a1af-04a7d0affc88"/>
-    <ds:schemaRef ds:uri="0d81d729-89c4-4952-b666-0a894ff8d8bf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>